--- a/biology/Botanique/Gesse_des_montagnes/Gesse_des_montagnes.xlsx
+++ b/biology/Botanique/Gesse_des_montagnes/Gesse_des_montagnes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lathyrus montanus · Gesse aux tiges renflées, Orobe
-La Gesse des montagnes (Lathyrus linifolius var. montanus (Bernh.) Bässler[1]) est une variété de Gesse à feuilles de lin (Lathyrus linifolius), une plante herbacée vivace de la famille des Fabaceae (de la sous-famille des Faboideae selon la classification phylogénétique), que les taxonomistes ont parfois considérée comme formant une espèce à part entière : Lathyrus montanus[2].
+La Gesse des montagnes (Lathyrus linifolius var. montanus (Bernh.) Bässler) est une variété de Gesse à feuilles de lin (Lathyrus linifolius), une plante herbacée vivace de la famille des Fabaceae (de la sous-famille des Faboideae selon la classification phylogénétique), que les taxonomistes ont parfois considérée comme formant une espèce à part entière : Lathyrus montanus.
 </t>
         </is>
       </c>
@@ -512,16 +524,18 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nom scientifique
-valide : Lathyrus linifolius var. montanus (Bernh.) Bässler, 1971[3],[1]
+valide : Lathyrus linifolius var. montanus (Bernh.) Bässler, 1971,
 Synonymes :
-Lathyrus montanus Bernh.[3]
+Lathyrus montanus Bernh.
 Lathyrus macrorrhizus Wimm.
 Orobus tuberosus L.
-Nom normalisé, recommandé ou typique : Gesse des montagnes[1],[4]
-autres noms vulgaires (vulgarisation scientifique) ou noms vernaculaires (langage courant): Gesse aux tiges renflées, Orobe[5].</t>
+Nom normalisé, recommandé ou typique : Gesse des montagnes,
+autres noms vulgaires (vulgarisation scientifique) ou noms vernaculaires (langage courant): Gesse aux tiges renflées, Orobe.</t>
         </is>
       </c>
     </row>
@@ -549,7 +563,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Taille de 15 à 40 cm de haut. Tige ailée. Feuilles pennées, composées en nombre pair (2 à 8 folioles) glauques en dessous. Pétiole ailé. Fleurs rouge-violacé puis bleuâtres, disposées par 2 à 6 en grappes plus grandes que les feuilles. Gousses noires à maturité de 3 à 4 cm.
 </t>
@@ -580,7 +596,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hémicryptophyte. Sur sols neutres à calcaires.
 </t>
@@ -611,7 +629,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurasiatique. Jusqu'à 1 290 mètres d'altitude : étages collinéen et montagnard. Rare dans le nord de la France et la région méditerranéenne.
 </t>
@@ -642,7 +662,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Forêts, clairières, landes, pelouses et prairies.
 </t>
